--- a/biology/Botanique/Ptychosperma/Ptychosperma.xlsx
+++ b/biology/Botanique/Ptychosperma/Ptychosperma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ptychosperma est un genre de palmiers, des plantes de la famille des Arecaceae. La plupart des espèces sont natives d'Australie et/ou de Nouvelle-Guinée, mais quelques-unes sont trouvées dans les îles Salomon des Moluques dans l'est de l'Indonésie.
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
@@ -545,9 +559,11 @@
           <t>Liste des Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon  World Checklist of Selected Plant Families (WCSP)  (24 janvier 2021)[1]  et Plants of the World online (POWO)                (24 janvier 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon  World Checklist of Selected Plant Families (WCSP)  (24 janvier 2021)  et Plants of the World online (POWO)                (24 janvier 2021) :
 Ptychosperma ambiguum			(Becc.) Becc. ex Martelli
 Ptychosperma buabe				Essig
 Ptychosperma burretianum			Essig
